--- a/字集文档/日本常用汉字表2136字.xlsx
+++ b/字集文档/日本常用汉字表2136字.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11620"/>
+    <workbookView windowWidth="28800" windowHeight="11620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="常用汉字表2136字" sheetId="2" r:id="rId1"/>
-    <sheet name="数据来源" sheetId="3" r:id="rId2"/>
+    <sheet name="人名用汉字863字新旧字体对照" sheetId="4" r:id="rId2"/>
+    <sheet name="数据来源" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">常用汉字表2136字!$C$1:$C$2144</definedName>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7936" uniqueCount="4230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9022" uniqueCount="4887">
   <si>
     <t>通用字体</t>
   </si>
@@ -12695,6 +12696,1962 @@
     <t>ワン、うで</t>
   </si>
   <si>
+    <t>新字体人名用汉字(633)</t>
+  </si>
+  <si>
+    <t>旧字体人名用汉字(18+212)</t>
+  </si>
+  <si>
+    <t>新字体常用汉字(212)</t>
+  </si>
+  <si>
+    <t>人名用汉字=新字体人名用汉字633字+旧字体人名用汉字230字</t>
+  </si>
+  <si>
+    <t>丑</t>
+  </si>
+  <si>
+    <t>旧字体人名用汉字230字中，212字对应的新字体是常用汉字，18字对应的新字体也是人名用汉字</t>
+  </si>
+  <si>
+    <t>丞</t>
+  </si>
+  <si>
+    <t>乃</t>
+  </si>
+  <si>
+    <t>之</t>
+  </si>
+  <si>
+    <t>乎</t>
+  </si>
+  <si>
+    <t>也</t>
+  </si>
+  <si>
+    <t>云</t>
+  </si>
+  <si>
+    <t>亘</t>
+  </si>
+  <si>
+    <t>亙</t>
+  </si>
+  <si>
+    <t>些</t>
+  </si>
+  <si>
+    <t>亦</t>
+  </si>
+  <si>
+    <t>亥</t>
+  </si>
+  <si>
+    <t>亨</t>
+  </si>
+  <si>
+    <t>亮</t>
+  </si>
+  <si>
+    <t>仔</t>
+  </si>
+  <si>
+    <t>伊</t>
+  </si>
+  <si>
+    <t>伍</t>
+  </si>
+  <si>
+    <t>伽</t>
+  </si>
+  <si>
+    <t>佃</t>
+  </si>
+  <si>
+    <t>佑</t>
+  </si>
+  <si>
+    <t>伶</t>
+  </si>
+  <si>
+    <t>侃</t>
+  </si>
+  <si>
+    <t>侑</t>
+  </si>
+  <si>
+    <t>俄</t>
+  </si>
+  <si>
+    <t>俠</t>
+  </si>
+  <si>
+    <t>俣</t>
+  </si>
+  <si>
+    <t>俐</t>
+  </si>
+  <si>
+    <t>倭</t>
+  </si>
+  <si>
+    <t>俱</t>
+  </si>
+  <si>
+    <t>倦</t>
+  </si>
+  <si>
+    <t>倖</t>
+  </si>
+  <si>
+    <t>偲</t>
+  </si>
+  <si>
+    <t>傭</t>
+  </si>
+  <si>
+    <t>儲</t>
+  </si>
+  <si>
+    <t>允</t>
+  </si>
+  <si>
+    <t>兎</t>
+  </si>
+  <si>
+    <t>兜</t>
+  </si>
+  <si>
+    <t>其</t>
+  </si>
+  <si>
+    <t>冴</t>
+  </si>
+  <si>
+    <t>凌</t>
+  </si>
+  <si>
+    <t>凜</t>
+  </si>
+  <si>
+    <t>凛</t>
+  </si>
+  <si>
+    <t>凧</t>
+  </si>
+  <si>
+    <t>凪</t>
+  </si>
+  <si>
+    <t>凰</t>
+  </si>
+  <si>
+    <t>凱</t>
+  </si>
+  <si>
+    <t>函</t>
+  </si>
+  <si>
+    <t>劉</t>
+  </si>
+  <si>
+    <t>劫</t>
+  </si>
+  <si>
+    <t>勁</t>
+  </si>
+  <si>
+    <t>勿</t>
+  </si>
+  <si>
+    <t>匡</t>
+  </si>
+  <si>
+    <t>廿</t>
+  </si>
+  <si>
+    <t>卯</t>
+  </si>
+  <si>
+    <t>卿</t>
+  </si>
+  <si>
+    <t>厨</t>
+  </si>
+  <si>
+    <t>厩</t>
+  </si>
+  <si>
+    <t>叉</t>
+  </si>
+  <si>
+    <t>叡</t>
+  </si>
+  <si>
+    <t>叢</t>
+  </si>
+  <si>
+    <t>叶</t>
+  </si>
+  <si>
+    <t>只</t>
+  </si>
+  <si>
+    <t>吾</t>
+  </si>
+  <si>
+    <t>吞</t>
+  </si>
+  <si>
+    <t>吻</t>
+  </si>
+  <si>
+    <t>哉</t>
+  </si>
+  <si>
+    <t>哨</t>
+  </si>
+  <si>
+    <t>啄</t>
+  </si>
+  <si>
+    <t>哩</t>
+  </si>
+  <si>
+    <t>喬</t>
+  </si>
+  <si>
+    <t>喧</t>
+  </si>
+  <si>
+    <t>喰</t>
+  </si>
+  <si>
+    <t>喋</t>
+  </si>
+  <si>
+    <t>嘩</t>
+  </si>
+  <si>
+    <t>嘉</t>
+  </si>
+  <si>
+    <t>嘗</t>
+  </si>
+  <si>
+    <t>噌</t>
+  </si>
+  <si>
+    <t>噂</t>
+  </si>
+  <si>
+    <t>圃</t>
+  </si>
+  <si>
+    <t>圭</t>
+  </si>
+  <si>
+    <t>坐</t>
+  </si>
+  <si>
+    <t>尭</t>
+  </si>
+  <si>
+    <t>堯</t>
+  </si>
+  <si>
+    <t>坦</t>
+  </si>
+  <si>
+    <t>埴</t>
+  </si>
+  <si>
+    <t>堰</t>
+  </si>
+  <si>
+    <t>堺</t>
+  </si>
+  <si>
+    <t>堵</t>
+  </si>
+  <si>
+    <t>塙</t>
+  </si>
+  <si>
+    <t>壕</t>
+  </si>
+  <si>
+    <t>壬</t>
+  </si>
+  <si>
+    <t>夷</t>
+  </si>
+  <si>
+    <t>奄</t>
+  </si>
+  <si>
+    <t>奎</t>
+  </si>
+  <si>
+    <t>套</t>
+  </si>
+  <si>
+    <t>娃</t>
+  </si>
+  <si>
+    <t>姪</t>
+  </si>
+  <si>
+    <t>姥</t>
+  </si>
+  <si>
+    <t>娩</t>
+  </si>
+  <si>
+    <t>嬉</t>
+  </si>
+  <si>
+    <t>孟</t>
+  </si>
+  <si>
+    <t>宏</t>
+  </si>
+  <si>
+    <t>宋</t>
+  </si>
+  <si>
+    <t>宕</t>
+  </si>
+  <si>
+    <t>宥</t>
+  </si>
+  <si>
+    <t>寅</t>
+  </si>
+  <si>
+    <t>寓</t>
+  </si>
+  <si>
+    <t>寵</t>
+  </si>
+  <si>
+    <t>尖</t>
+  </si>
+  <si>
+    <t>尤</t>
+  </si>
+  <si>
+    <t>屑</t>
+  </si>
+  <si>
+    <t>峨</t>
+  </si>
+  <si>
+    <t>峻</t>
+  </si>
+  <si>
+    <t>崚</t>
+  </si>
+  <si>
+    <t>嵯</t>
+  </si>
+  <si>
+    <t>嵩</t>
+  </si>
+  <si>
+    <t>嶺</t>
+  </si>
+  <si>
+    <t>巌</t>
+  </si>
+  <si>
+    <t>巖</t>
+  </si>
+  <si>
+    <t>巫</t>
+  </si>
+  <si>
+    <t>已</t>
+  </si>
+  <si>
+    <t>巳</t>
+  </si>
+  <si>
+    <t>巴</t>
+  </si>
+  <si>
+    <t>巷</t>
+  </si>
+  <si>
+    <t>巽</t>
+  </si>
+  <si>
+    <t>帖</t>
+  </si>
+  <si>
+    <t>幌</t>
+  </si>
+  <si>
+    <t>幡</t>
+  </si>
+  <si>
+    <t>庄</t>
+  </si>
+  <si>
+    <t>庇</t>
+  </si>
+  <si>
+    <t>庚</t>
+  </si>
+  <si>
+    <t>庵</t>
+  </si>
+  <si>
+    <t>廟</t>
+  </si>
+  <si>
+    <t>廻</t>
+  </si>
+  <si>
+    <t>弘</t>
+  </si>
+  <si>
+    <t>弛</t>
+  </si>
+  <si>
+    <t>彗</t>
+  </si>
+  <si>
+    <t>彦</t>
+  </si>
+  <si>
+    <t>彪</t>
+  </si>
+  <si>
+    <t>彬</t>
+  </si>
+  <si>
+    <t>徠</t>
+  </si>
+  <si>
+    <t>忽</t>
+  </si>
+  <si>
+    <t>怜</t>
+  </si>
+  <si>
+    <t>恢</t>
+  </si>
+  <si>
+    <t>恰</t>
+  </si>
+  <si>
+    <t>恕</t>
+  </si>
+  <si>
+    <t>悌</t>
+  </si>
+  <si>
+    <t>惟</t>
+  </si>
+  <si>
+    <t>惚</t>
+  </si>
+  <si>
+    <t>悉</t>
+  </si>
+  <si>
+    <t>惇</t>
+  </si>
+  <si>
+    <t>惹</t>
+  </si>
+  <si>
+    <t>惺</t>
+  </si>
+  <si>
+    <t>惣</t>
+  </si>
+  <si>
+    <t>慧</t>
+  </si>
+  <si>
+    <t>憐</t>
+  </si>
+  <si>
+    <t>戊</t>
+  </si>
+  <si>
+    <t>或</t>
+  </si>
+  <si>
+    <t>戟</t>
+  </si>
+  <si>
+    <t>托</t>
+  </si>
+  <si>
+    <t>按</t>
+  </si>
+  <si>
+    <t>挺</t>
+  </si>
+  <si>
+    <t>挽</t>
+  </si>
+  <si>
+    <t>掬</t>
+  </si>
+  <si>
+    <t>捲</t>
+  </si>
+  <si>
+    <t>捷</t>
+  </si>
+  <si>
+    <t>捺</t>
+  </si>
+  <si>
+    <t>捧</t>
+  </si>
+  <si>
+    <t>掠</t>
+  </si>
+  <si>
+    <t>揃</t>
+  </si>
+  <si>
+    <t>摑</t>
+  </si>
+  <si>
+    <t>摺</t>
+  </si>
+  <si>
+    <t>撒</t>
+  </si>
+  <si>
+    <t>撰</t>
+  </si>
+  <si>
+    <t>撞</t>
+  </si>
+  <si>
+    <t>播</t>
+  </si>
+  <si>
+    <t>撫</t>
+  </si>
+  <si>
+    <t>擢</t>
+  </si>
+  <si>
+    <t>孜</t>
+  </si>
+  <si>
+    <t>敦</t>
+  </si>
+  <si>
+    <t>斐</t>
+  </si>
+  <si>
+    <t>斡</t>
+  </si>
+  <si>
+    <t>斧</t>
+  </si>
+  <si>
+    <t>斯</t>
+  </si>
+  <si>
+    <t>於</t>
+  </si>
+  <si>
+    <t>旭</t>
+  </si>
+  <si>
+    <t>昂</t>
+  </si>
+  <si>
+    <t>昊</t>
+  </si>
+  <si>
+    <t>昏</t>
+  </si>
+  <si>
+    <t>昌</t>
+  </si>
+  <si>
+    <t>昴</t>
+  </si>
+  <si>
+    <t>晏</t>
+  </si>
+  <si>
+    <t>晃</t>
+  </si>
+  <si>
+    <t>晄</t>
+  </si>
+  <si>
+    <t>晒</t>
+  </si>
+  <si>
+    <t>晋</t>
+  </si>
+  <si>
+    <t>晟</t>
+  </si>
+  <si>
+    <t>晦</t>
+  </si>
+  <si>
+    <t>晨</t>
+  </si>
+  <si>
+    <t>智</t>
+  </si>
+  <si>
+    <t>暉</t>
+  </si>
+  <si>
+    <t>暢</t>
+  </si>
+  <si>
+    <t>曙</t>
+  </si>
+  <si>
+    <t>曝</t>
+  </si>
+  <si>
+    <t>曳</t>
+  </si>
+  <si>
+    <t>朋</t>
+  </si>
+  <si>
+    <t>朔</t>
+  </si>
+  <si>
+    <t>杏</t>
+  </si>
+  <si>
+    <t>杖</t>
+  </si>
+  <si>
+    <t>杜</t>
+  </si>
+  <si>
+    <t>李</t>
+  </si>
+  <si>
+    <t>杭</t>
+  </si>
+  <si>
+    <t>杵</t>
+  </si>
+  <si>
+    <t>杷</t>
+  </si>
+  <si>
+    <t>枇</t>
+  </si>
+  <si>
+    <t>柑</t>
+  </si>
+  <si>
+    <t>柴</t>
+  </si>
+  <si>
+    <t>柘</t>
+  </si>
+  <si>
+    <t>柊</t>
+  </si>
+  <si>
+    <t>柏</t>
+  </si>
+  <si>
+    <t>柾</t>
+  </si>
+  <si>
+    <t>柚</t>
+  </si>
+  <si>
+    <t>桧</t>
+  </si>
+  <si>
+    <t>檜</t>
+  </si>
+  <si>
+    <t>栞</t>
+  </si>
+  <si>
+    <t>桔</t>
+  </si>
+  <si>
+    <t>桂</t>
+  </si>
+  <si>
+    <t>栖</t>
+  </si>
+  <si>
+    <t>桐</t>
+  </si>
+  <si>
+    <t>栗</t>
+  </si>
+  <si>
+    <t>梧</t>
+  </si>
+  <si>
+    <t>梓</t>
+  </si>
+  <si>
+    <t>梢</t>
+  </si>
+  <si>
+    <t>梛</t>
+  </si>
+  <si>
+    <t>梯</t>
+  </si>
+  <si>
+    <t>桶</t>
+  </si>
+  <si>
+    <t>梶</t>
+  </si>
+  <si>
+    <t>椛</t>
+  </si>
+  <si>
+    <t>梁</t>
+  </si>
+  <si>
+    <t>棲</t>
+  </si>
+  <si>
+    <t>椋</t>
+  </si>
+  <si>
+    <t>椀</t>
+  </si>
+  <si>
+    <t>楯</t>
+  </si>
+  <si>
+    <t>楚</t>
+  </si>
+  <si>
+    <t>楕</t>
+  </si>
+  <si>
+    <t>椿</t>
+  </si>
+  <si>
+    <t>楠</t>
+  </si>
+  <si>
+    <t>楓</t>
+  </si>
+  <si>
+    <t>椰</t>
+  </si>
+  <si>
+    <t>楢</t>
+  </si>
+  <si>
+    <t>楊</t>
+  </si>
+  <si>
+    <t>榎</t>
+  </si>
+  <si>
+    <t>樺</t>
+  </si>
+  <si>
+    <t>榊</t>
+  </si>
+  <si>
+    <t>榛</t>
+  </si>
+  <si>
+    <t>槙</t>
+  </si>
+  <si>
+    <t>槇</t>
+  </si>
+  <si>
+    <t>槍</t>
+  </si>
+  <si>
+    <t>槌</t>
+  </si>
+  <si>
+    <t>樫</t>
+  </si>
+  <si>
+    <t>槻</t>
+  </si>
+  <si>
+    <t>樟</t>
+  </si>
+  <si>
+    <t>樋</t>
+  </si>
+  <si>
+    <t>橘</t>
+  </si>
+  <si>
+    <t>樽</t>
+  </si>
+  <si>
+    <t>橙</t>
+  </si>
+  <si>
+    <t>檎</t>
+  </si>
+  <si>
+    <t>檀</t>
+  </si>
+  <si>
+    <t>櫂</t>
+  </si>
+  <si>
+    <t>櫛</t>
+  </si>
+  <si>
+    <t>櫓</t>
+  </si>
+  <si>
+    <t>欣</t>
+  </si>
+  <si>
+    <t>欽</t>
+  </si>
+  <si>
+    <t>歎</t>
+  </si>
+  <si>
+    <t>此</t>
+  </si>
+  <si>
+    <t>殆</t>
+  </si>
+  <si>
+    <t>毅</t>
+  </si>
+  <si>
+    <t>毘</t>
+  </si>
+  <si>
+    <t>毬</t>
+  </si>
+  <si>
+    <t>汀</t>
+  </si>
+  <si>
+    <t>汝</t>
+  </si>
+  <si>
+    <t>汐</t>
+  </si>
+  <si>
+    <t>汲</t>
+  </si>
+  <si>
+    <t>沌</t>
+  </si>
+  <si>
+    <t>沓</t>
+  </si>
+  <si>
+    <t>沫</t>
+  </si>
+  <si>
+    <t>洸</t>
+  </si>
+  <si>
+    <t>洲</t>
+  </si>
+  <si>
+    <t>洵</t>
+  </si>
+  <si>
+    <t>洛</t>
+  </si>
+  <si>
+    <t>浩</t>
+  </si>
+  <si>
+    <t>浬</t>
+  </si>
+  <si>
+    <t>淵</t>
+  </si>
+  <si>
+    <t>淳</t>
+  </si>
+  <si>
+    <t>渚</t>
+  </si>
+  <si>
+    <t>渚</t>
+  </si>
+  <si>
+    <t>淀</t>
+  </si>
+  <si>
+    <t>淋</t>
+  </si>
+  <si>
+    <t>渥</t>
+  </si>
+  <si>
+    <t>渾</t>
+  </si>
+  <si>
+    <t>湘</t>
+  </si>
+  <si>
+    <t>湊</t>
+  </si>
+  <si>
+    <t>湛</t>
+  </si>
+  <si>
+    <t>溢</t>
+  </si>
+  <si>
+    <t>滉</t>
+  </si>
+  <si>
+    <t>溜</t>
+  </si>
+  <si>
+    <t>漱</t>
+  </si>
+  <si>
+    <t>漕</t>
+  </si>
+  <si>
+    <t>漣</t>
+  </si>
+  <si>
+    <t>澪</t>
+  </si>
+  <si>
+    <t>濡</t>
+  </si>
+  <si>
+    <t>瀕</t>
+  </si>
+  <si>
+    <t>灘</t>
+  </si>
+  <si>
+    <t>灸</t>
+  </si>
+  <si>
+    <t>灼</t>
+  </si>
+  <si>
+    <t>烏</t>
+  </si>
+  <si>
+    <t>焰</t>
+  </si>
+  <si>
+    <t>焚</t>
+  </si>
+  <si>
+    <t>煌</t>
+  </si>
+  <si>
+    <t>煤</t>
+  </si>
+  <si>
+    <t>煉</t>
+  </si>
+  <si>
+    <t>熙</t>
+  </si>
+  <si>
+    <t>燕</t>
+  </si>
+  <si>
+    <t>燎</t>
+  </si>
+  <si>
+    <t>燦</t>
+  </si>
+  <si>
+    <t>燭</t>
+  </si>
+  <si>
+    <t>燿</t>
+  </si>
+  <si>
+    <t>爾</t>
+  </si>
+  <si>
+    <t>牒</t>
+  </si>
+  <si>
+    <t>牟</t>
+  </si>
+  <si>
+    <t>牡</t>
+  </si>
+  <si>
+    <t>牽</t>
+  </si>
+  <si>
+    <t>犀</t>
+  </si>
+  <si>
+    <t>狼</t>
+  </si>
+  <si>
+    <t>猪</t>
+  </si>
+  <si>
+    <t>猪</t>
+  </si>
+  <si>
+    <t>獅</t>
+  </si>
+  <si>
+    <t>玖</t>
+  </si>
+  <si>
+    <t>珂</t>
+  </si>
+  <si>
+    <t>珈</t>
+  </si>
+  <si>
+    <t>珊</t>
+  </si>
+  <si>
+    <t>珀</t>
+  </si>
+  <si>
+    <t>玲</t>
+  </si>
+  <si>
+    <t>琢</t>
+  </si>
+  <si>
+    <t>琢</t>
+  </si>
+  <si>
+    <t>琉</t>
+  </si>
+  <si>
+    <t>瑛</t>
+  </si>
+  <si>
+    <t>琥</t>
+  </si>
+  <si>
+    <t>琶</t>
+  </si>
+  <si>
+    <t>琵</t>
+  </si>
+  <si>
+    <t>琳</t>
+  </si>
+  <si>
+    <t>瑚</t>
+  </si>
+  <si>
+    <t>瑞</t>
+  </si>
+  <si>
+    <t>瑶</t>
+  </si>
+  <si>
+    <t>瑳</t>
+  </si>
+  <si>
+    <t>瓢</t>
+  </si>
+  <si>
+    <t>甥</t>
+  </si>
+  <si>
+    <t>甫</t>
+  </si>
+  <si>
+    <t>畠</t>
+  </si>
+  <si>
+    <t>畢</t>
+  </si>
+  <si>
+    <t>疏</t>
+  </si>
+  <si>
+    <t>皐</t>
+  </si>
+  <si>
+    <t>皓</t>
+  </si>
+  <si>
+    <t>眸</t>
+  </si>
+  <si>
+    <t>瞥</t>
+  </si>
+  <si>
+    <t>矩</t>
+  </si>
+  <si>
+    <t>砦</t>
+  </si>
+  <si>
+    <t>砥</t>
+  </si>
+  <si>
+    <t>砧</t>
+  </si>
+  <si>
+    <t>硯</t>
+  </si>
+  <si>
+    <t>碓</t>
+  </si>
+  <si>
+    <t>碗</t>
+  </si>
+  <si>
+    <t>碩</t>
+  </si>
+  <si>
+    <t>碧</t>
+  </si>
+  <si>
+    <t>磐</t>
+  </si>
+  <si>
+    <t>磯</t>
+  </si>
+  <si>
+    <t>祇</t>
+  </si>
+  <si>
+    <t>祢</t>
+  </si>
+  <si>
+    <t>禰</t>
+  </si>
+  <si>
+    <t>祐</t>
+  </si>
+  <si>
+    <t>祐</t>
+  </si>
+  <si>
+    <t>祷</t>
+  </si>
+  <si>
+    <t>禱</t>
+  </si>
+  <si>
+    <t>禄</t>
+  </si>
+  <si>
+    <t>祿</t>
+  </si>
+  <si>
+    <t>禎</t>
+  </si>
+  <si>
+    <t>禎</t>
+  </si>
+  <si>
+    <t>禽</t>
+  </si>
+  <si>
+    <t>秦</t>
+  </si>
+  <si>
+    <t>秤</t>
+  </si>
+  <si>
+    <t>稀</t>
+  </si>
+  <si>
+    <t>稔</t>
+  </si>
+  <si>
+    <t>稟</t>
+  </si>
+  <si>
+    <t>稜</t>
+  </si>
+  <si>
+    <t>穣</t>
+  </si>
+  <si>
+    <t>穰</t>
+  </si>
+  <si>
+    <t>穹</t>
+  </si>
+  <si>
+    <t>穿</t>
+  </si>
+  <si>
+    <t>窄</t>
+  </si>
+  <si>
+    <t>窪</t>
+  </si>
+  <si>
+    <t>窺</t>
+  </si>
+  <si>
+    <t>竣</t>
+  </si>
+  <si>
+    <t>竪</t>
+  </si>
+  <si>
+    <t>竺</t>
+  </si>
+  <si>
+    <t>竿</t>
+  </si>
+  <si>
+    <t>笈</t>
+  </si>
+  <si>
+    <t>笹</t>
+  </si>
+  <si>
+    <t>笙</t>
+  </si>
+  <si>
+    <t>笠</t>
+  </si>
+  <si>
+    <t>筈</t>
+  </si>
+  <si>
+    <t>筑</t>
+  </si>
+  <si>
+    <t>箕</t>
+  </si>
+  <si>
+    <t>箔</t>
+  </si>
+  <si>
+    <t>篇</t>
+  </si>
+  <si>
+    <t>篠</t>
+  </si>
+  <si>
+    <t>簞</t>
+  </si>
+  <si>
+    <t>簾</t>
+  </si>
+  <si>
+    <t>籾</t>
+  </si>
+  <si>
+    <t>粥</t>
+  </si>
+  <si>
+    <t>粟</t>
+  </si>
+  <si>
+    <t>糊</t>
+  </si>
+  <si>
+    <t>紘</t>
+  </si>
+  <si>
+    <t>紗</t>
+  </si>
+  <si>
+    <t>紐</t>
+  </si>
+  <si>
+    <t>絃</t>
+  </si>
+  <si>
+    <t>紬</t>
+  </si>
+  <si>
+    <t>絆</t>
+  </si>
+  <si>
+    <t>絢</t>
+  </si>
+  <si>
+    <t>綺</t>
+  </si>
+  <si>
+    <t>綜</t>
+  </si>
+  <si>
+    <t>綴</t>
+  </si>
+  <si>
+    <t>緋</t>
+  </si>
+  <si>
+    <t>綾</t>
+  </si>
+  <si>
+    <t>綸</t>
+  </si>
+  <si>
+    <t>縞</t>
+  </si>
+  <si>
+    <t>徽</t>
+  </si>
+  <si>
+    <t>繫</t>
+  </si>
+  <si>
+    <t>繡</t>
+  </si>
+  <si>
+    <t>纂</t>
+  </si>
+  <si>
+    <t>纏</t>
+  </si>
+  <si>
+    <t>羚</t>
+  </si>
+  <si>
+    <t>翔</t>
+  </si>
+  <si>
+    <t>翠</t>
+  </si>
+  <si>
+    <t>耀</t>
+  </si>
+  <si>
+    <t>耶</t>
+  </si>
+  <si>
+    <t>耽</t>
+  </si>
+  <si>
+    <t>聡</t>
+  </si>
+  <si>
+    <t>肇</t>
+  </si>
+  <si>
+    <t>肋</t>
+  </si>
+  <si>
+    <t>肴</t>
+  </si>
+  <si>
+    <t>胤</t>
+  </si>
+  <si>
+    <t>胡</t>
+  </si>
+  <si>
+    <t>脩</t>
+  </si>
+  <si>
+    <t>腔</t>
+  </si>
+  <si>
+    <t>膏</t>
+  </si>
+  <si>
+    <t>臥</t>
+  </si>
+  <si>
+    <t>舜</t>
+  </si>
+  <si>
+    <t>舵</t>
+  </si>
+  <si>
+    <t>芥</t>
+  </si>
+  <si>
+    <t>芹</t>
+  </si>
+  <si>
+    <t>芭</t>
+  </si>
+  <si>
+    <t>芙</t>
+  </si>
+  <si>
+    <t>芦</t>
+  </si>
+  <si>
+    <t>苑</t>
+  </si>
+  <si>
+    <t>茄</t>
+  </si>
+  <si>
+    <t>苔</t>
+  </si>
+  <si>
+    <t>苺</t>
+  </si>
+  <si>
+    <t>茅</t>
+  </si>
+  <si>
+    <t>茉</t>
+  </si>
+  <si>
+    <t>茸</t>
+  </si>
+  <si>
+    <t>茜</t>
+  </si>
+  <si>
+    <t>莞</t>
+  </si>
+  <si>
+    <t>荻</t>
+  </si>
+  <si>
+    <t>莫</t>
+  </si>
+  <si>
+    <t>莉</t>
+  </si>
+  <si>
+    <t>菅</t>
+  </si>
+  <si>
+    <t>菫</t>
+  </si>
+  <si>
+    <t>菖</t>
+  </si>
+  <si>
+    <t>萄</t>
+  </si>
+  <si>
+    <t>菩</t>
+  </si>
+  <si>
+    <t>萌</t>
+  </si>
+  <si>
+    <t>萠</t>
+  </si>
+  <si>
+    <t>萊</t>
+  </si>
+  <si>
+    <t>菱</t>
+  </si>
+  <si>
+    <t>葦</t>
+  </si>
+  <si>
+    <t>葵</t>
+  </si>
+  <si>
+    <t>萱</t>
+  </si>
+  <si>
+    <t>葺</t>
+  </si>
+  <si>
+    <t>萩</t>
+  </si>
+  <si>
+    <t>董</t>
+  </si>
+  <si>
+    <t>葡</t>
+  </si>
+  <si>
+    <t>蓑</t>
+  </si>
+  <si>
+    <t>蒔</t>
+  </si>
+  <si>
+    <t>蒐</t>
+  </si>
+  <si>
+    <t>蒼</t>
+  </si>
+  <si>
+    <t>蒲</t>
+  </si>
+  <si>
+    <t>蒙</t>
+  </si>
+  <si>
+    <t>蓉</t>
+  </si>
+  <si>
+    <t>蓮</t>
+  </si>
+  <si>
+    <t>蔭</t>
+  </si>
+  <si>
+    <t>蔣</t>
+  </si>
+  <si>
+    <t>蔦</t>
+  </si>
+  <si>
+    <t>蓬</t>
+  </si>
+  <si>
+    <t>蔓</t>
+  </si>
+  <si>
+    <t>蕎</t>
+  </si>
+  <si>
+    <t>蕨</t>
+  </si>
+  <si>
+    <t>蕉</t>
+  </si>
+  <si>
+    <t>蕃</t>
+  </si>
+  <si>
+    <t>蕪</t>
+  </si>
+  <si>
+    <t>薙</t>
+  </si>
+  <si>
+    <t>蕾</t>
+  </si>
+  <si>
+    <t>蕗</t>
+  </si>
+  <si>
+    <t>藁</t>
+  </si>
+  <si>
+    <t>薩</t>
+  </si>
+  <si>
+    <t>蘇</t>
+  </si>
+  <si>
+    <t>蘭</t>
+  </si>
+  <si>
+    <t>蝦</t>
+  </si>
+  <si>
+    <t>蝶</t>
+  </si>
+  <si>
+    <t>螺</t>
+  </si>
+  <si>
+    <t>蟬</t>
+  </si>
+  <si>
+    <t>蟹</t>
+  </si>
+  <si>
+    <t>蠟</t>
+  </si>
+  <si>
+    <t>衿</t>
+  </si>
+  <si>
+    <t>袈</t>
+  </si>
+  <si>
+    <t>袴</t>
+  </si>
+  <si>
+    <t>裡</t>
+  </si>
+  <si>
+    <t>裟</t>
+  </si>
+  <si>
+    <t>裳</t>
+  </si>
+  <si>
+    <t>襖</t>
+  </si>
+  <si>
+    <t>訊</t>
+  </si>
+  <si>
+    <t>訣</t>
+  </si>
+  <si>
+    <t>註</t>
+  </si>
+  <si>
+    <t>詢</t>
+  </si>
+  <si>
+    <t>詫</t>
+  </si>
+  <si>
+    <t>誼</t>
+  </si>
+  <si>
+    <t>諏</t>
+  </si>
+  <si>
+    <t>諄</t>
+  </si>
+  <si>
+    <t>諒</t>
+  </si>
+  <si>
+    <t>謂</t>
+  </si>
+  <si>
+    <t>諺</t>
+  </si>
+  <si>
+    <t>讃</t>
+  </si>
+  <si>
+    <t>豹</t>
+  </si>
+  <si>
+    <t>貰</t>
+  </si>
+  <si>
+    <t>賑</t>
+  </si>
+  <si>
+    <t>赳</t>
+  </si>
+  <si>
+    <t>跨</t>
+  </si>
+  <si>
+    <t>蹄</t>
+  </si>
+  <si>
+    <t>蹟</t>
+  </si>
+  <si>
+    <t>輔</t>
+  </si>
+  <si>
+    <t>輯</t>
+  </si>
+  <si>
+    <t>輿</t>
+  </si>
+  <si>
+    <t>轟</t>
+  </si>
+  <si>
+    <t>辻</t>
+  </si>
+  <si>
+    <t>迂</t>
+  </si>
+  <si>
+    <t>迄</t>
+  </si>
+  <si>
+    <t>辿</t>
+  </si>
+  <si>
+    <t>迪</t>
+  </si>
+  <si>
+    <t>迦</t>
+  </si>
+  <si>
+    <t>這</t>
+  </si>
+  <si>
+    <t>逞</t>
+  </si>
+  <si>
+    <t>逗</t>
+  </si>
+  <si>
+    <t>逢</t>
+  </si>
+  <si>
+    <t>遥</t>
+  </si>
+  <si>
+    <t>遙</t>
+  </si>
+  <si>
+    <t>遁</t>
+  </si>
+  <si>
+    <t>遼</t>
+  </si>
+  <si>
+    <t>祁</t>
+  </si>
+  <si>
+    <t>郁</t>
+  </si>
+  <si>
+    <t>鄭</t>
+  </si>
+  <si>
+    <t>醇</t>
+  </si>
+  <si>
+    <t>醐</t>
+  </si>
+  <si>
+    <t>醍</t>
+  </si>
+  <si>
+    <t>醬</t>
+  </si>
+  <si>
+    <t>釉</t>
+  </si>
+  <si>
+    <t>釘</t>
+  </si>
+  <si>
+    <t>釧</t>
+  </si>
+  <si>
+    <t>鋒</t>
+  </si>
+  <si>
+    <t>鋸</t>
+  </si>
+  <si>
+    <t>錐</t>
+  </si>
+  <si>
+    <t>錆</t>
+  </si>
+  <si>
+    <t>錫</t>
+  </si>
+  <si>
+    <t>鍬</t>
+  </si>
+  <si>
+    <t>鎧</t>
+  </si>
+  <si>
+    <t>閃</t>
+  </si>
+  <si>
+    <t>閏</t>
+  </si>
+  <si>
+    <t>閤</t>
+  </si>
+  <si>
+    <t>阿</t>
+  </si>
+  <si>
+    <t>陀</t>
+  </si>
+  <si>
+    <t>隈</t>
+  </si>
+  <si>
+    <t>隼</t>
+  </si>
+  <si>
+    <t>雀</t>
+  </si>
+  <si>
+    <t>雁</t>
+  </si>
+  <si>
+    <t>雛</t>
+  </si>
+  <si>
+    <t>雫</t>
+  </si>
+  <si>
+    <t>霞</t>
+  </si>
+  <si>
+    <t>靖</t>
+  </si>
+  <si>
+    <t>鞄</t>
+  </si>
+  <si>
+    <t>鞍</t>
+  </si>
+  <si>
+    <t>鞘</t>
+  </si>
+  <si>
+    <t>鞠</t>
+  </si>
+  <si>
+    <t>鞭</t>
+  </si>
+  <si>
+    <t>頌</t>
+  </si>
+  <si>
+    <t>頗</t>
+  </si>
+  <si>
+    <t>顚</t>
+  </si>
+  <si>
+    <t>颯</t>
+  </si>
+  <si>
+    <t>饗</t>
+  </si>
+  <si>
+    <t>馨</t>
+  </si>
+  <si>
+    <t>馴</t>
+  </si>
+  <si>
+    <t>馳</t>
+  </si>
+  <si>
+    <t>駕</t>
+  </si>
+  <si>
+    <t>駿</t>
+  </si>
+  <si>
+    <t>驍</t>
+  </si>
+  <si>
+    <t>魁</t>
+  </si>
+  <si>
+    <t>魯</t>
+  </si>
+  <si>
+    <t>鮎</t>
+  </si>
+  <si>
+    <t>鯉</t>
+  </si>
+  <si>
+    <t>鯛</t>
+  </si>
+  <si>
+    <t>鰯</t>
+  </si>
+  <si>
+    <t>鱒</t>
+  </si>
+  <si>
+    <t>鱗</t>
+  </si>
+  <si>
+    <t>鳩</t>
+  </si>
+  <si>
+    <t>鳶</t>
+  </si>
+  <si>
+    <t>鳳</t>
+  </si>
+  <si>
+    <t>鴨</t>
+  </si>
+  <si>
+    <t>鴻</t>
+  </si>
+  <si>
+    <t>鵜</t>
+  </si>
+  <si>
+    <t>鵬</t>
+  </si>
+  <si>
+    <t>鷗</t>
+  </si>
+  <si>
+    <t>鷲</t>
+  </si>
+  <si>
+    <t>鷺</t>
+  </si>
+  <si>
+    <t>鷹</t>
+  </si>
+  <si>
+    <t>麒</t>
+  </si>
+  <si>
+    <t>麟</t>
+  </si>
+  <si>
+    <t>麿</t>
+  </si>
+  <si>
+    <t>黎</t>
+  </si>
+  <si>
+    <t>黛</t>
+  </si>
+  <si>
+    <t>鼎</t>
+  </si>
+  <si>
+    <t>薗</t>
+  </si>
+  <si>
+    <t>駈</t>
+  </si>
+  <si>
+    <t>嶋</t>
+  </si>
+  <si>
+    <t>盃</t>
+  </si>
+  <si>
+    <t>冨</t>
+  </si>
+  <si>
+    <t>峯</t>
+  </si>
+  <si>
+    <t>飜</t>
+  </si>
+  <si>
+    <t>埜</t>
+  </si>
+  <si>
+    <t>凉</t>
+  </si>
+  <si>
+    <t>常用汉字表2136字</t>
+  </si>
+  <si>
     <t>文件原件</t>
   </si>
   <si>
@@ -12708,6 +14665,21 @@
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%B8%B8%E7%94%A8%E6%BC%A2%E5%AD%97%E4%B8%80%E8%A6%A7</t>
+  </si>
+  <si>
+    <t>可用于人名的汉字2999字，其中包括了常用汉字2136字、人名用汉字863字</t>
+  </si>
+  <si>
+    <t>子の名に使える漢字は2999字。内訳は常用漢字2136字、人名用漢字863字（常用漢字の異体字を含む）。</t>
+  </si>
+  <si>
+    <t>维基百科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%90%8D%E7%94%A8%E6%BC%A2%E5%AD%97</t>
+  </si>
+  <si>
+    <t>https://ja.wiktionary.org/wiki/%E4%BB%98%E9%8C%B2:%E4%BA%BA%E5%90%8D%E7%94%A8%E6%BC%A2%E5%AD%97%E3%81%AE%E4%B8%80%E8%A6%A7</t>
   </si>
 </sst>
 </file>
@@ -12716,8 +14688,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -12730,17 +14702,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12751,6 +14715,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -12767,14 +14778,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -12782,9 +14785,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12797,14 +14800,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -12813,15 +14808,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12834,40 +14837,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12882,13 +14854,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12900,7 +14878,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12912,19 +14908,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12936,7 +14920,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12948,13 +14938,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12972,36 +14956,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -13014,43 +14968,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13062,7 +15010,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13073,56 +15045,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -13159,6 +15081,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -13173,153 +15115,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13648,7 +15620,7 @@
   <sheetPr/>
   <dimension ref="A1:I2144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -58548,25 +60520,4984 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:C8"/>
+  <dimension ref="A1:E847"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="24.7692307692308" customWidth="1"/>
+    <col min="2" max="2" width="28.6923076923077" customWidth="1"/>
+    <col min="3" max="3" width="22.3076923076923" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>4225</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4226</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4227</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4229</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>4237</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>4246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>4270</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>3859</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>4311</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>4319</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>4347</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>4407</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>4416</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>4417</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>4422</v>
+      </c>
+      <c r="B194" t="s">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>4424</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>4426</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>4427</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>4429</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>4432</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>4434</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>4435</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>4436</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>4439</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>4441</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>4442</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>4443</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>4445</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>4447</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>4449</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>4451</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>4452</v>
+      </c>
+      <c r="B223" t="s">
+        <v>4453</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>4454</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>4457</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>4459</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>4462</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>4463</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>4464</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>4467</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>4472</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>4473</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>4474</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>4475</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>4476</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>4477</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>4479</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>4481</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>4482</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>4483</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>4485</v>
+      </c>
+      <c r="B255" t="s">
+        <v>4486</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>4487</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>4489</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>4491</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
+        <v>4492</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
+        <v>4493</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
+        <v>4494</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
+        <v>4498</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
+        <v>4499</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
+        <v>4501</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
+        <v>4503</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
+        <v>4506</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" t="s">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" t="s">
+        <v>4511</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" t="s">
+        <v>4512</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" t="s">
+        <v>4513</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
+        <v>4514</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" t="s">
+        <v>4515</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" t="s">
+        <v>4516</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" t="s">
+        <v>4517</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" t="s">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" t="s">
+        <v>4519</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" t="s">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" t="s">
+        <v>4521</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" t="s">
+        <v>4522</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" t="s">
+        <v>4523</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>4524</v>
+      </c>
+      <c r="B293" t="s">
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" t="s">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" t="s">
+        <v>4527</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" t="s">
+        <v>4528</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" t="s">
+        <v>4529</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" t="s">
+        <v>4530</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" t="s">
+        <v>4531</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" t="s">
+        <v>4532</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" t="s">
+        <v>4533</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" t="s">
+        <v>4534</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" t="s">
+        <v>4535</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" t="s">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" t="s">
+        <v>4537</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" t="s">
+        <v>4538</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" t="s">
+        <v>4539</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" t="s">
+        <v>4540</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" t="s">
+        <v>4541</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" t="s">
+        <v>4542</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" t="s">
+        <v>4543</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" t="s">
+        <v>4544</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" t="s">
+        <v>4545</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" t="s">
+        <v>4546</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" t="s">
+        <v>4547</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" t="s">
+        <v>4548</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" t="s">
+        <v>4549</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" t="s">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" t="s">
+        <v>4551</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" t="s">
+        <v>4552</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" t="s">
+        <v>4553</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" t="s">
+        <v>4554</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" t="s">
+        <v>4555</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" t="s">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" t="s">
+        <v>4557</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" t="s">
+        <v>4558</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" t="s">
+        <v>4559</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" t="s">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" t="s">
+        <v>4561</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" t="s">
+        <v>4562</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" t="s">
+        <v>4563</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" t="s">
+        <v>4564</v>
+      </c>
+      <c r="B332" t="s">
+        <v>4565</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" t="s">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" t="s">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" t="s">
+        <v>4568</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" t="s">
+        <v>4569</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" t="s">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" t="s">
+        <v>4571</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" t="s">
+        <v>4572</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" t="s">
+        <v>4573</v>
+      </c>
+      <c r="B340" t="s">
+        <v>4574</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" t="s">
+        <v>4575</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" t="s">
+        <v>4576</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" t="s">
+        <v>4577</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" t="s">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" t="s">
+        <v>4579</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" t="s">
+        <v>4580</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" t="s">
+        <v>4581</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" t="s">
+        <v>4582</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" t="s">
+        <v>4583</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" t="s">
+        <v>4584</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" t="s">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" t="s">
+        <v>4585</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" t="s">
+        <v>4586</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" t="s">
+        <v>4587</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" t="s">
+        <v>4588</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" t="s">
+        <v>4589</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" t="s">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" t="s">
+        <v>4591</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" t="s">
+        <v>4592</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" t="s">
+        <v>4593</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" t="s">
+        <v>4594</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" t="s">
+        <v>4595</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" t="s">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" t="s">
+        <v>4597</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" t="s">
+        <v>4598</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" t="s">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" t="s">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" t="s">
+        <v>4601</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" t="s">
+        <v>4602</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" t="s">
+        <v>4603</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" t="s">
+        <v>4604</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" t="s">
+        <v>4605</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" t="s">
+        <v>4606</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" t="s">
+        <v>4607</v>
+      </c>
+      <c r="B375" t="s">
+        <v>4608</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" t="s">
+        <v>4609</v>
+      </c>
+      <c r="B376" t="s">
+        <v>4610</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" t="s">
+        <v>4611</v>
+      </c>
+      <c r="B377" t="s">
+        <v>4612</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" t="s">
+        <v>4613</v>
+      </c>
+      <c r="B378" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" t="s">
+        <v>4615</v>
+      </c>
+      <c r="B379" t="s">
+        <v>4616</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" t="s">
+        <v>4617</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" t="s">
+        <v>4618</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" t="s">
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" t="s">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" t="s">
+        <v>4621</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" t="s">
+        <v>4622</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" t="s">
+        <v>4623</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" t="s">
+        <v>4624</v>
+      </c>
+      <c r="B388" t="s">
+        <v>4625</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" t="s">
+        <v>4626</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" t="s">
+        <v>4627</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" t="s">
+        <v>4629</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" t="s">
+        <v>4630</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" t="s">
+        <v>4631</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" t="s">
+        <v>4632</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" t="s">
+        <v>4633</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" t="s">
+        <v>4634</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" t="s">
+        <v>4635</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" t="s">
+        <v>4636</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" t="s">
+        <v>4637</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" t="s">
+        <v>4638</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" t="s">
+        <v>4639</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" t="s">
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" t="s">
+        <v>4641</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" t="s">
+        <v>4642</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" t="s">
+        <v>4643</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" t="s">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" t="s">
+        <v>4645</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" t="s">
+        <v>4646</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" t="s">
+        <v>4647</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" t="s">
+        <v>4648</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" t="s">
+        <v>4649</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" t="s">
+        <v>4651</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" t="s">
+        <v>4652</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" t="s">
+        <v>4653</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" t="s">
+        <v>4655</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" t="s">
+        <v>4656</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" t="s">
+        <v>4658</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" t="s">
+        <v>4659</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" t="s">
+        <v>4660</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" t="s">
+        <v>4661</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" t="s">
+        <v>4662</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" t="s">
+        <v>4663</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" t="s">
+        <v>4664</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" t="s">
+        <v>4666</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" t="s">
+        <v>4667</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" t="s">
+        <v>4668</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" t="s">
+        <v>4669</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" t="s">
+        <v>4670</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" t="s">
+        <v>4671</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" t="s">
+        <v>4672</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" t="s">
+        <v>4673</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" t="s">
+        <v>4674</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" t="s">
+        <v>4675</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" t="s">
+        <v>4676</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" t="s">
+        <v>4677</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" t="s">
+        <v>4678</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" t="s">
+        <v>4679</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" t="s">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" t="s">
+        <v>4681</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" t="s">
+        <v>4682</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" t="s">
+        <v>4683</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" t="s">
+        <v>4684</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" t="s">
+        <v>4685</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" t="s">
+        <v>4686</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" t="s">
+        <v>4687</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" t="s">
+        <v>4688</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" t="s">
+        <v>4689</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" t="s">
+        <v>4690</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" t="s">
+        <v>4691</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" t="s">
+        <v>4692</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" t="s">
+        <v>4693</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" t="s">
+        <v>4694</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" t="s">
+        <v>4697</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" t="s">
+        <v>4698</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" t="s">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" t="s">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" t="s">
+        <v>4701</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" t="s">
+        <v>4702</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" t="s">
+        <v>4703</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" t="s">
+        <v>4704</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" t="s">
+        <v>4705</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" t="s">
+        <v>4706</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" t="s">
+        <v>4707</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" t="s">
+        <v>4708</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" t="s">
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" t="s">
+        <v>4710</v>
+      </c>
+      <c r="B475" t="s">
+        <v>4711</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" t="s">
+        <v>4712</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" t="s">
+        <v>4713</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" t="s">
+        <v>4714</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" t="s">
+        <v>4715</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" t="s">
+        <v>4716</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" t="s">
+        <v>4717</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" t="s">
+        <v>4718</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" t="s">
+        <v>4719</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" t="s">
+        <v>4720</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" t="s">
+        <v>4721</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" t="s">
+        <v>4722</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" t="s">
+        <v>4723</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" t="s">
+        <v>4724</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" t="s">
+        <v>4725</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" t="s">
+        <v>4726</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" t="s">
+        <v>4727</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" t="s">
+        <v>4728</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" t="s">
+        <v>4729</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" t="s">
+        <v>4730</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" t="s">
+        <v>4733</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" t="s">
+        <v>4734</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" t="s">
+        <v>4735</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" t="s">
+        <v>4736</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" t="s">
+        <v>4737</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502" t="s">
+        <v>4738</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503" t="s">
+        <v>4739</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504" t="s">
+        <v>4740</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" t="s">
+        <v>4741</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506" t="s">
+        <v>4742</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507" t="s">
+        <v>4743</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508" t="s">
+        <v>4744</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509" t="s">
+        <v>4745</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510" t="s">
+        <v>4746</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511" t="s">
+        <v>4747</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512" t="s">
+        <v>4748</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513" t="s">
+        <v>4749</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" t="s">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515" t="s">
+        <v>4751</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" t="s">
+        <v>4752</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517" t="s">
+        <v>4753</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518" t="s">
+        <v>4754</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519" t="s">
+        <v>4755</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" t="s">
+        <v>4756</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521" t="s">
+        <v>4757</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522" t="s">
+        <v>4758</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523" t="s">
+        <v>4759</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524" t="s">
+        <v>4760</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525" t="s">
+        <v>4761</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526" t="s">
+        <v>4762</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527" t="s">
+        <v>4763</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528" t="s">
+        <v>4764</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529" t="s">
+        <v>4765</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530" t="s">
+        <v>4766</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531" t="s">
+        <v>4767</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532" t="s">
+        <v>4768</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533" t="s">
+        <v>4769</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534" t="s">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535" t="s">
+        <v>4771</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536" t="s">
+        <v>4772</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537" t="s">
+        <v>4773</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538" t="s">
+        <v>4774</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539" t="s">
+        <v>4775</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540" t="s">
+        <v>4776</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541" t="s">
+        <v>4777</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542" t="s">
+        <v>4778</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543" t="s">
+        <v>4779</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544" t="s">
+        <v>4780</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545" t="s">
+        <v>4781</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547" t="s">
+        <v>4782</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548" t="s">
+        <v>4783</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549" t="s">
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550" t="s">
+        <v>4785</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551" t="s">
+        <v>4786</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552" t="s">
+        <v>4787</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553" t="s">
+        <v>4788</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554" t="s">
+        <v>4789</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555" t="s">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556" t="s">
+        <v>4791</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" t="s">
+        <v>4792</v>
+      </c>
+      <c r="B557" t="s">
+        <v>4793</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558" t="s">
+        <v>4794</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" t="s">
+        <v>4795</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561" t="s">
+        <v>4796</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562" t="s">
+        <v>4797</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563" t="s">
+        <v>4798</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565" t="s">
+        <v>4799</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566" t="s">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567" t="s">
+        <v>4801</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568" t="s">
+        <v>4802</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569" t="s">
+        <v>4803</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570" t="s">
+        <v>4804</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571" t="s">
+        <v>4805</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573" t="s">
+        <v>4806</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574" t="s">
+        <v>4807</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576" t="s">
+        <v>4808</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577" t="s">
+        <v>4809</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578" t="s">
+        <v>4810</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579" t="s">
+        <v>4811</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580" t="s">
+        <v>4812</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581" t="s">
+        <v>4813</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582" t="s">
+        <v>4814</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583" t="s">
+        <v>4815</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584" t="s">
+        <v>4816</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585" t="s">
+        <v>4817</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586" t="s">
+        <v>4818</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587" t="s">
+        <v>4819</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588" t="s">
+        <v>4820</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589" t="s">
+        <v>4821</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590" t="s">
+        <v>4822</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591" t="s">
+        <v>4823</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592" t="s">
+        <v>4824</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593" t="s">
+        <v>4825</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594" t="s">
+        <v>4826</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595" t="s">
+        <v>4827</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596" t="s">
+        <v>4828</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597" t="s">
+        <v>4829</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598" t="s">
+        <v>4830</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600" t="s">
+        <v>4831</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601" t="s">
+        <v>4832</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602" t="s">
+        <v>4833</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603" t="s">
+        <v>4834</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604" t="s">
+        <v>4835</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1">
+      <c r="A605" t="s">
+        <v>4836</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1">
+      <c r="A606" t="s">
+        <v>4837</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1">
+      <c r="A607" t="s">
+        <v>4838</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1">
+      <c r="A608" t="s">
+        <v>4839</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1">
+      <c r="A609" t="s">
+        <v>4840</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1">
+      <c r="A610" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611" t="s">
+        <v>4842</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1">
+      <c r="A612" t="s">
+        <v>4843</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1">
+      <c r="A613" t="s">
+        <v>4844</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1">
+      <c r="A614" t="s">
+        <v>4845</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1">
+      <c r="A615" t="s">
+        <v>4846</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1">
+      <c r="A616" t="s">
+        <v>4847</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1">
+      <c r="A617" t="s">
+        <v>4848</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1">
+      <c r="A618" t="s">
+        <v>4849</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1">
+      <c r="A619" t="s">
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1">
+      <c r="A620" t="s">
+        <v>4851</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1">
+      <c r="A621" t="s">
+        <v>4852</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1">
+      <c r="A622" t="s">
+        <v>4853</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1">
+      <c r="A623" t="s">
+        <v>4854</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1">
+      <c r="A624" t="s">
+        <v>4855</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1">
+      <c r="A625" t="s">
+        <v>4856</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1">
+      <c r="A626" t="s">
+        <v>4857</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1">
+      <c r="A627" t="s">
+        <v>4858</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1">
+      <c r="A628" t="s">
+        <v>4859</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1">
+      <c r="A629" t="s">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1">
+      <c r="A630" t="s">
+        <v>4861</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631" t="s">
+        <v>4862</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632" t="s">
+        <v>4863</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1">
+      <c r="A633" t="s">
+        <v>4864</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634" t="s">
+        <v>4865</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1">
+      <c r="A635" t="s">
+        <v>4866</v>
+      </c>
+    </row>
+    <row r="636" spans="2:3">
+      <c r="B636" t="s">
+        <v>9</v>
+      </c>
+      <c r="C636" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="637" spans="2:3">
+      <c r="B637" t="s">
+        <v>24</v>
+      </c>
+      <c r="C637" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="638" spans="2:3">
+      <c r="B638" t="s">
+        <v>68</v>
+      </c>
+      <c r="C638" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="639" spans="2:3">
+      <c r="B639" t="s">
+        <v>112</v>
+      </c>
+      <c r="C639" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="640" spans="2:3">
+      <c r="B640" t="s">
+        <v>177</v>
+      </c>
+      <c r="C640" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="641" spans="2:3">
+      <c r="B641" t="s">
+        <v>194</v>
+      </c>
+      <c r="C641" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="642" spans="2:3">
+      <c r="B642" t="s">
+        <v>216</v>
+      </c>
+      <c r="C642" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="643" spans="2:3">
+      <c r="B643" t="s">
+        <v>221</v>
+      </c>
+      <c r="C643" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="644" spans="2:3">
+      <c r="B644" t="s">
+        <v>253</v>
+      </c>
+      <c r="C644" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="645" spans="2:3">
+      <c r="B645" t="s">
+        <v>4867</v>
+      </c>
+      <c r="C645" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="646" spans="2:3">
+      <c r="B646" t="s">
+        <v>269</v>
+      </c>
+      <c r="C646" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="647" spans="2:3">
+      <c r="B647" t="s">
+        <v>284</v>
+      </c>
+      <c r="C647" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="648" spans="2:3">
+      <c r="B648" t="s">
+        <v>288</v>
+      </c>
+      <c r="C648" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="649" spans="2:3">
+      <c r="B649" t="s">
+        <v>291</v>
+      </c>
+      <c r="C649" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="650" spans="2:3">
+      <c r="B650" t="s">
+        <v>315</v>
+      </c>
+      <c r="C650" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="651" spans="2:3">
+      <c r="B651" t="s">
+        <v>340</v>
+      </c>
+      <c r="C651" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="652" spans="2:3">
+      <c r="B652" t="s">
+        <v>371</v>
+      </c>
+      <c r="C652" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="653" spans="2:3">
+      <c r="B653" t="s">
+        <v>425</v>
+      </c>
+      <c r="C653" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="654" spans="2:3">
+      <c r="B654" t="s">
+        <v>428</v>
+      </c>
+      <c r="C654" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="655" spans="2:3">
+      <c r="B655" t="s">
+        <v>450</v>
+      </c>
+      <c r="C655" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="656" spans="2:3">
+      <c r="B656" t="s">
+        <v>453</v>
+      </c>
+      <c r="C656" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="657" spans="2:3">
+      <c r="B657" t="s">
+        <v>519</v>
+      </c>
+      <c r="C657" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="658" spans="2:3">
+      <c r="B658" t="s">
+        <v>536</v>
+      </c>
+      <c r="C658" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="659" spans="2:3">
+      <c r="B659" t="s">
+        <v>575</v>
+      </c>
+      <c r="C659" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="660" spans="2:3">
+      <c r="B660" t="s">
+        <v>580</v>
+      </c>
+      <c r="C660" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="661" spans="2:3">
+      <c r="B661" t="s">
+        <v>606</v>
+      </c>
+      <c r="C661" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="662" spans="2:3">
+      <c r="B662" t="s">
+        <v>611</v>
+      </c>
+      <c r="C662" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="663" spans="2:3">
+      <c r="B663" t="s">
+        <v>667</v>
+      </c>
+      <c r="C663" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="664" spans="2:3">
+      <c r="B664" t="s">
+        <v>678</v>
+      </c>
+      <c r="C664" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="665" spans="2:3">
+      <c r="B665" t="s">
+        <v>725</v>
+      </c>
+      <c r="C665" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="666" spans="2:3">
+      <c r="B666" t="s">
+        <v>737</v>
+      </c>
+      <c r="C666" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="667" spans="2:3">
+      <c r="B667" t="s">
+        <v>748</v>
+      </c>
+      <c r="C667" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="668" spans="2:3">
+      <c r="B668" t="s">
+        <v>835</v>
+      </c>
+      <c r="C668" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="669" spans="2:3">
+      <c r="B669" t="s">
+        <v>866</v>
+      </c>
+      <c r="C669" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="670" spans="2:3">
+      <c r="B670" t="s">
+        <v>871</v>
+      </c>
+      <c r="C670" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="671" spans="2:3">
+      <c r="B671" t="s">
+        <v>902</v>
+      </c>
+      <c r="C671" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="672" spans="2:3">
+      <c r="B672" t="s">
+        <v>909</v>
+      </c>
+      <c r="C672" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="673" spans="2:3">
+      <c r="B673" t="s">
+        <v>931</v>
+      </c>
+      <c r="C673" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="674" spans="2:3">
+      <c r="B674" t="s">
+        <v>944</v>
+      </c>
+      <c r="C674" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="675" spans="2:3">
+      <c r="B675" t="s">
+        <v>4868</v>
+      </c>
+      <c r="C675" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="676" spans="2:3">
+      <c r="B676" t="s">
+        <v>990</v>
+      </c>
+      <c r="C676" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="677" spans="2:3">
+      <c r="B677" t="s">
+        <v>992</v>
+      </c>
+      <c r="C677" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="678" spans="2:3">
+      <c r="B678" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C678" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="679" spans="2:3">
+      <c r="B679" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C679" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="680" spans="2:3">
+      <c r="B680" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C680" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="681" spans="2:3">
+      <c r="B681" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C681" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="682" spans="2:3">
+      <c r="B682" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C682" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="683" spans="2:3">
+      <c r="B683" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C683" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="684" spans="2:3">
+      <c r="B684" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C684" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="685" spans="2:3">
+      <c r="B685" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C685" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="686" spans="2:3">
+      <c r="B686" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C686" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="687" spans="2:3">
+      <c r="B687" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C687" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="688" spans="2:3">
+      <c r="B688" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C688" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="689" spans="2:3">
+      <c r="B689" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C689" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="690" spans="2:3">
+      <c r="B690" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C690" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="691" spans="2:3">
+      <c r="B691" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C691" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="692" spans="2:3">
+      <c r="B692" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C692" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="693" spans="2:3">
+      <c r="B693" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C693" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="694" spans="2:3">
+      <c r="B694" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C694" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="695" spans="2:3">
+      <c r="B695" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C695" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="696" spans="2:3">
+      <c r="B696" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C696" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="697" spans="2:3">
+      <c r="B697" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C697" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="698" spans="2:3">
+      <c r="B698" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C698" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="699" spans="2:3">
+      <c r="B699" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C699" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="700" spans="2:3">
+      <c r="B700" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C700" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="701" spans="2:3">
+      <c r="B701" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C701" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="702" spans="2:3">
+      <c r="B702" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C702" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="703" spans="2:3">
+      <c r="B703" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C703" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="704" spans="2:3">
+      <c r="B704" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C704" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="705" spans="2:3">
+      <c r="B705" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C705" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="706" spans="2:3">
+      <c r="B706" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C706" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="707" spans="2:3">
+      <c r="B707" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C707" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="708" spans="2:3">
+      <c r="B708" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C708" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="709" spans="2:3">
+      <c r="B709" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C709" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="710" spans="2:3">
+      <c r="B710" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C710" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="711" spans="2:3">
+      <c r="B711" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C711" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="712" spans="2:3">
+      <c r="B712" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C712" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="713" spans="2:3">
+      <c r="B713" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C713" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="714" spans="2:3">
+      <c r="B714" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C714" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="715" spans="2:3">
+      <c r="B715" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C715" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="716" spans="2:3">
+      <c r="B716" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C716" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="717" spans="2:3">
+      <c r="B717" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C717" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="718" spans="2:3">
+      <c r="B718" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C718" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="719" spans="2:3">
+      <c r="B719" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C719" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="720" spans="2:3">
+      <c r="B720" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C720" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="721" spans="2:3">
+      <c r="B721" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C721" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="722" spans="2:3">
+      <c r="B722" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C722" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="723" spans="2:3">
+      <c r="B723" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C723" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="724" spans="2:3">
+      <c r="B724" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C724" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="725" spans="2:3">
+      <c r="B725" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C725" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="726" spans="2:3">
+      <c r="B726" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C726" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="727" spans="2:3">
+      <c r="B727" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C727" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="728" spans="2:3">
+      <c r="B728" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C728" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="729" spans="2:3">
+      <c r="B729" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C729" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="730" spans="2:3">
+      <c r="B730" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C730" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="731" spans="2:3">
+      <c r="B731" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C731" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="732" spans="2:3">
+      <c r="B732" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C732" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="733" spans="2:3">
+      <c r="B733" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C733" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="734" spans="2:3">
+      <c r="B734" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C734" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="735" spans="2:3">
+      <c r="B735" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C735" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="736" spans="2:3">
+      <c r="B736" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C736" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="737" spans="2:3">
+      <c r="B737" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C737" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="738" spans="2:3">
+      <c r="B738" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C738" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="739" spans="2:3">
+      <c r="B739" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C739" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="740" spans="2:3">
+      <c r="B740" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C740" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="741" spans="2:3">
+      <c r="B741" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C741" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="742" spans="2:3">
+      <c r="B742" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C742" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="743" spans="2:3">
+      <c r="B743" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C743" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="744" spans="2:3">
+      <c r="B744" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C744" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="745" spans="2:3">
+      <c r="B745" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C745" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="746" spans="2:3">
+      <c r="B746" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C746" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="747" spans="2:3">
+      <c r="B747" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C747" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="748" spans="2:3">
+      <c r="B748" t="s">
+        <v>2365</v>
+      </c>
+      <c r="C748" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="749" spans="2:3">
+      <c r="B749" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C749" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="750" spans="2:3">
+      <c r="B750" t="s">
+        <v>2408</v>
+      </c>
+      <c r="C750" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="751" spans="2:3">
+      <c r="B751" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C751" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="752" spans="2:3">
+      <c r="B752" t="s">
+        <v>2432</v>
+      </c>
+      <c r="C752" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="753" spans="2:3">
+      <c r="B753" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C753" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="754" spans="2:3">
+      <c r="B754" t="s">
+        <v>2460</v>
+      </c>
+      <c r="C754" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="755" spans="2:3">
+      <c r="B755" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C755" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="756" spans="2:3">
+      <c r="B756" t="s">
+        <v>2476</v>
+      </c>
+      <c r="C756" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="757" spans="2:3">
+      <c r="B757" t="s">
+        <v>2484</v>
+      </c>
+      <c r="C757" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="758" spans="2:3">
+      <c r="B758" t="s">
+        <v>2490</v>
+      </c>
+      <c r="C758" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="759" spans="2:3">
+      <c r="B759" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C759" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="760" spans="2:3">
+      <c r="B760" t="s">
+        <v>2510</v>
+      </c>
+      <c r="C760" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="761" spans="2:3">
+      <c r="B761" t="s">
+        <v>2514</v>
+      </c>
+      <c r="C761" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="762" spans="2:3">
+      <c r="B762" t="s">
+        <v>2502</v>
+      </c>
+      <c r="C762" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="763" spans="2:3">
+      <c r="B763" t="s">
+        <v>2527</v>
+      </c>
+      <c r="C763" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="764" spans="2:3">
+      <c r="B764" t="s">
+        <v>2535</v>
+      </c>
+      <c r="C764" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="765" spans="2:3">
+      <c r="B765" t="s">
+        <v>2538</v>
+      </c>
+      <c r="C765" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="766" spans="2:3">
+      <c r="B766" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C766" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="767" spans="2:3">
+      <c r="B767" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C767" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="768" spans="2:3">
+      <c r="B768" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C768" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="769" spans="2:3">
+      <c r="B769" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C769" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="770" spans="2:3">
+      <c r="B770" t="s">
+        <v>2628</v>
+      </c>
+      <c r="C770" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="771" spans="2:3">
+      <c r="B771" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C771" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="772" spans="2:3">
+      <c r="B772" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C772" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="773" spans="2:3">
+      <c r="B773" t="s">
+        <v>2693</v>
+      </c>
+      <c r="C773" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="774" spans="2:3">
+      <c r="B774" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C774" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="775" spans="2:3">
+      <c r="B775" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C775" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="776" spans="2:3">
+      <c r="B776" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C776" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="777" spans="2:3">
+      <c r="B777" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C777" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="778" spans="2:3">
+      <c r="B778" t="s">
+        <v>2792</v>
+      </c>
+      <c r="C778" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="779" spans="2:3">
+      <c r="B779" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C779" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="780" spans="2:3">
+      <c r="B780" t="s">
+        <v>2805</v>
+      </c>
+      <c r="C780" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="781" spans="2:3">
+      <c r="B781" t="s">
+        <v>2837</v>
+      </c>
+      <c r="C781" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="782" spans="2:3">
+      <c r="B782" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C782" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="783" spans="2:3">
+      <c r="B783" t="s">
+        <v>2850</v>
+      </c>
+      <c r="C783" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="784" spans="2:3">
+      <c r="B784" t="s">
+        <v>2866</v>
+      </c>
+      <c r="C784" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="785" spans="2:3">
+      <c r="B785" t="s">
+        <v>2956</v>
+      </c>
+      <c r="C785" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="786" spans="2:3">
+      <c r="B786" t="s">
+        <v>2961</v>
+      </c>
+      <c r="C786" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="787" spans="2:3">
+      <c r="B787" t="s">
+        <v>2975</v>
+      </c>
+      <c r="C787" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="788" spans="2:3">
+      <c r="B788" t="s">
+        <v>4869</v>
+      </c>
+      <c r="C788" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="789" spans="2:3">
+      <c r="B789" t="s">
+        <v>2996</v>
+      </c>
+      <c r="C789" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="790" spans="2:3">
+      <c r="B790" t="s">
+        <v>3030</v>
+      </c>
+      <c r="C790" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="791" spans="2:3">
+      <c r="B791" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C791" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="792" spans="2:3">
+      <c r="B792" t="s">
+        <v>3096</v>
+      </c>
+      <c r="C792" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="793" spans="2:3">
+      <c r="B793" t="s">
+        <v>3112</v>
+      </c>
+      <c r="C793" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="794" spans="2:3">
+      <c r="B794" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C794" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="795" spans="2:3">
+      <c r="B795" t="s">
+        <v>3214</v>
+      </c>
+      <c r="C795" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="796" spans="2:3">
+      <c r="B796" t="s">
+        <v>4870</v>
+      </c>
+      <c r="C796" t="s">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="797" spans="2:3">
+      <c r="B797" t="s">
+        <v>3233</v>
+      </c>
+      <c r="C797" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="798" spans="2:3">
+      <c r="B798" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C798" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="799" spans="2:3">
+      <c r="B799" t="s">
+        <v>3286</v>
+      </c>
+      <c r="C799" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="800" spans="2:3">
+      <c r="B800" t="s">
+        <v>3292</v>
+      </c>
+      <c r="C800" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="801" spans="2:3">
+      <c r="B801" t="s">
+        <v>3334</v>
+      </c>
+      <c r="C801" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="802" spans="2:3">
+      <c r="B802" t="s">
+        <v>3337</v>
+      </c>
+      <c r="C802" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="803" spans="2:3">
+      <c r="B803" t="s">
+        <v>3359</v>
+      </c>
+      <c r="C803" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="804" spans="2:3">
+      <c r="B804" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C804" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="805" spans="2:3">
+      <c r="B805" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C805" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="806" spans="2:3">
+      <c r="B806" t="s">
+        <v>3440</v>
+      </c>
+      <c r="C806" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="807" spans="2:3">
+      <c r="B807" t="s">
+        <v>3445</v>
+      </c>
+      <c r="C807" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="808" spans="2:3">
+      <c r="B808" t="s">
+        <v>4871</v>
+      </c>
+      <c r="C808" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="809" spans="2:3">
+      <c r="B809" t="s">
+        <v>3486</v>
+      </c>
+      <c r="C809" t="s">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="810" spans="2:3">
+      <c r="B810" t="s">
+        <v>3508</v>
+      </c>
+      <c r="C810" t="s">
+        <v>3507</v>
+      </c>
+    </row>
+    <row r="811" spans="2:3">
+      <c r="B811" t="s">
+        <v>3515</v>
+      </c>
+      <c r="C811" t="s">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="812" spans="2:3">
+      <c r="B812" t="s">
+        <v>3520</v>
+      </c>
+      <c r="C812" t="s">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="813" spans="2:3">
+      <c r="B813" t="s">
+        <v>3601</v>
+      </c>
+      <c r="C813" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="814" spans="2:3">
+      <c r="B814" t="s">
+        <v>3603</v>
+      </c>
+      <c r="C814" t="s">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="815" spans="2:3">
+      <c r="B815" t="s">
+        <v>4872</v>
+      </c>
+      <c r="C815" t="s">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="816" spans="2:3">
+      <c r="B816" t="s">
+        <v>3722</v>
+      </c>
+      <c r="C816" t="s">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="817" spans="2:3">
+      <c r="B817" t="s">
+        <v>4873</v>
+      </c>
+      <c r="C817" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="818" spans="2:3">
+      <c r="B818" t="s">
+        <v>3750</v>
+      </c>
+      <c r="C818" t="s">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="819" spans="2:3">
+      <c r="B819" t="s">
+        <v>3770</v>
+      </c>
+      <c r="C819" t="s">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="820" spans="2:3">
+      <c r="B820" t="s">
+        <v>3852</v>
+      </c>
+      <c r="C820" t="s">
+        <v>3851</v>
+      </c>
+    </row>
+    <row r="821" spans="2:3">
+      <c r="B821" t="s">
+        <v>4874</v>
+      </c>
+      <c r="C821" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="822" spans="2:3">
+      <c r="B822" t="s">
+        <v>3868</v>
+      </c>
+      <c r="C822" t="s">
+        <v>3867</v>
+      </c>
+    </row>
+    <row r="823" spans="2:3">
+      <c r="B823" t="s">
+        <v>3879</v>
+      </c>
+      <c r="C823" t="s">
+        <v>3878</v>
+      </c>
+    </row>
+    <row r="824" spans="2:3">
+      <c r="B824" t="s">
+        <v>3925</v>
+      </c>
+      <c r="C824" t="s">
+        <v>3924</v>
+      </c>
+    </row>
+    <row r="825" spans="2:3">
+      <c r="B825" t="s">
+        <v>3954</v>
+      </c>
+      <c r="C825" t="s">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="826" spans="2:3">
+      <c r="B826" t="s">
+        <v>3964</v>
+      </c>
+      <c r="C826" t="s">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="827" spans="2:3">
+      <c r="B827" t="s">
+        <v>3975</v>
+      </c>
+      <c r="C827" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="828" spans="2:3">
+      <c r="B828" t="s">
+        <v>3995</v>
+      </c>
+      <c r="C828" t="s">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="829" spans="2:3">
+      <c r="B829" t="s">
+        <v>4000</v>
+      </c>
+      <c r="C829" t="s">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="830" spans="2:3">
+      <c r="B830" t="s">
+        <v>4016</v>
+      </c>
+      <c r="C830" t="s">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="831" spans="2:3">
+      <c r="B831" t="s">
+        <v>4022</v>
+      </c>
+      <c r="C831" t="s">
+        <v>4021</v>
+      </c>
+    </row>
+    <row r="832" spans="2:3">
+      <c r="B832" t="s">
+        <v>4053</v>
+      </c>
+      <c r="C832" t="s">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="833" spans="2:3">
+      <c r="B833" t="s">
+        <v>4066</v>
+      </c>
+      <c r="C833" t="s">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="834" spans="2:3">
+      <c r="B834" t="s">
+        <v>4875</v>
+      </c>
+      <c r="C834" t="s">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="835" spans="2:3">
+      <c r="B835" t="s">
+        <v>4093</v>
+      </c>
+      <c r="C835" t="s">
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="836" spans="2:3">
+      <c r="B836" t="s">
+        <v>4109</v>
+      </c>
+      <c r="C836" t="s">
+        <v>4108</v>
+      </c>
+    </row>
+    <row r="837" spans="2:3">
+      <c r="B837" t="s">
+        <v>4114</v>
+      </c>
+      <c r="C837" t="s">
+        <v>4113</v>
+      </c>
+    </row>
+    <row r="838" spans="2:3">
+      <c r="B838" t="s">
+        <v>4116</v>
+      </c>
+      <c r="C838" t="s">
+        <v>4115</v>
+      </c>
+    </row>
+    <row r="839" spans="2:3">
+      <c r="B839" t="s">
+        <v>4121</v>
+      </c>
+      <c r="C839" t="s">
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="840" spans="2:3">
+      <c r="B840" t="s">
+        <v>4146</v>
+      </c>
+      <c r="C840" t="s">
+        <v>4145</v>
+      </c>
+    </row>
+    <row r="841" spans="2:3">
+      <c r="B841" t="s">
+        <v>4149</v>
+      </c>
+      <c r="C841" t="s">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="842" spans="2:3">
+      <c r="B842" t="s">
+        <v>4166</v>
+      </c>
+      <c r="C842" t="s">
+        <v>4165</v>
+      </c>
+    </row>
+    <row r="843" spans="2:3">
+      <c r="B843" t="s">
+        <v>4169</v>
+      </c>
+      <c r="C843" t="s">
+        <v>4168</v>
+      </c>
+    </row>
+    <row r="844" spans="2:3">
+      <c r="B844" t="s">
+        <v>4186</v>
+      </c>
+      <c r="C844" t="s">
+        <v>4185</v>
+      </c>
+    </row>
+    <row r="845" spans="2:3">
+      <c r="B845" t="s">
+        <v>4188</v>
+      </c>
+      <c r="C845" t="s">
+        <v>4187</v>
+      </c>
+    </row>
+    <row r="846" spans="2:3">
+      <c r="B846" t="s">
+        <v>4192</v>
+      </c>
+      <c r="C846" t="s">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="847" spans="2:3">
+      <c r="B847" t="s">
+        <v>4202</v>
+      </c>
+      <c r="C847" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>4876</v>
+      </c>
+    </row>
     <row r="2" spans="2:3">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4225</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>4226</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -58574,7 +65505,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>4227</v>
+        <v>4879</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -58582,12 +65513,40 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>4228</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>4229</v>
+        <v>4881</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>4882</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>4883</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4884</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" t="s">
+        <v>4885</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" t="s">
+        <v>4886</v>
       </c>
     </row>
   </sheetData>
@@ -58595,6 +65554,8 @@
     <hyperlink ref="C5" r:id="rId1" display="https://www.asahi-net.or.jp/~ax2s-kmtn/ref/jouyoukanji.html" tooltip="https://www.asahi-net.or.jp/~ax2s-kmtn/ref/jouyoukanji.html"/>
     <hyperlink ref="C3" r:id="rId2" display="https://www.bunka.go.jp/kokugo_nihongo/sisaku/joho/joho/kijun/naikaku/pdf/joyokanjihyo_20101130.pdf" tooltip="https://www.bunka.go.jp/kokugo_nihongo/sisaku/joho/joho/kijun/naikaku/pdf/joyokanjihyo_20101130.pdf"/>
     <hyperlink ref="C8" r:id="rId3" display="https://ja.wikipedia.org/wiki/%E5%B8%B8%E7%94%A8%E6%BC%A2%E5%AD%97%E4%B8%80%E8%A6%A7" tooltip="https://ja.wikipedia.org/wiki/%E5%B8%B8%E7%94%A8%E6%BC%A2%E5%AD%97%E4%B8%80%E8%A6%A7"/>
+    <hyperlink ref="C15" r:id="rId4" display="https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%90%8D%E7%94%A8%E6%BC%A2%E5%AD%97" tooltip="https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%90%8D%E7%94%A8%E6%BC%A2%E5%AD%97"/>
+    <hyperlink ref="C16" r:id="rId5" display="https://ja.wiktionary.org/wiki/%E4%BB%98%E9%8C%B2:%E4%BA%BA%E5%90%8D%E7%94%A8%E6%BC%A2%E5%AD%97%E3%81%AE%E4%B8%80%E8%A6%A7" tooltip="https://ja.wiktionary.org/wiki/%E4%BB%98%E9%8C%B2:%E4%BA%BA%E5%90%8D%E7%94%A8%E6%BC%A2%E5%AD%97%E3%81%AE%E4%B8%80%E8%A6%A7"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
